--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
@@ -58,7 +58,21 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="3">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
@@ -415,7 +415,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -481,7 +481,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -547,7 +547,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -612,7 +612,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/AutoFilter/CustomAutoFilter.xlsx
@@ -109,12 +109,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
